--- a/data/trans_camb/IMC_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 8,71</t>
+          <t>-10,8; 17,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 10,55</t>
+          <t>-14,58; 14,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 6,49</t>
+          <t>-21,91; 9,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 6,4</t>
+          <t>-9,61; 10,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 5,07</t>
+          <t>-8,04; 12,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 5,7</t>
+          <t>-3,18; 17,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 9,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 10,35</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,35; 9,57</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>-9,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,29%</t>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 15,87</t>
+          <t>-17,45; 36,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 18,61</t>
+          <t>-23,15; 28,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 14,41</t>
+          <t>-36,58; 18,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 13,97</t>
+          <t>-18,57; 25,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 9,71</t>
+          <t>-15,57; 29,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 10,8</t>
+          <t>-6,34; 40,74</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 20,47</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; 22,17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-15,67; 20,64</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-4,74</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,01</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 10,03</t>
+          <t>-13,8; 11,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 12,82</t>
+          <t>-11,63; 13,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 8,96</t>
+          <t>-14,99; 10,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 7,43</t>
+          <t>-11,98; 10,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 6,24</t>
+          <t>-16,94; 5,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 7,02</t>
+          <t>-16,09; 6,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,26; 8,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 7,06</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,21; 5,04</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-10,71%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-5,71%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 19,26</t>
+          <t>-20,33; 20,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 23,96</t>
+          <t>-16,83; 24,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 22,25</t>
+          <t>-22,15; 18,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 18,62</t>
+          <t>-24,43; 27,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 12,99</t>
+          <t>-34,4; 14,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 14,67</t>
+          <t>-31,9; 16,95</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 16,28</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 14,87</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; 10,13</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>13,62</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,19</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 19,68</t>
+          <t>-31,67; 24,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 19,77</t>
+          <t>-26,39; 27,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 12,43</t>
+          <t>-25,26; 29,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 20,26</t>
+          <t>-19,63; 30,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 11,65</t>
+          <t>-20,08; 29,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 14,98</t>
+          <t>-10,84; 36,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-19,04; 19,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,29; 21,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; 27,87</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-3,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>27,47%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 34,62</t>
+          <t>-36,21; 39,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 33,25</t>
+          <t>-30,17; 46,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 26,91</t>
+          <t>-28,44; 48,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 41,94</t>
+          <t>-32,63; 88,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 20,46</t>
+          <t>-32,18; 86,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 25,54</t>
+          <t>-16,2; 106,64</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-25,87; 37,24</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,35; 39,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 51,84</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,79</t>
+          <t>-9,48; 9,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 7,6</t>
+          <t>-9,07; 10,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,7</t>
+          <t>-14,53; 6,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 4,31</t>
+          <t>-6,25; 7,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 3,49</t>
+          <t>-7,57; 6,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,41</t>
+          <t>-3,18; 11,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 6,33</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 6,3</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 6,62</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 10,07</t>
+          <t>-14,68; 17,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 13,64</t>
+          <t>-13,93; 19,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 10,47</t>
+          <t>-23,02; 11,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 9,64</t>
+          <t>-12,47; 16,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 6,66</t>
+          <t>-15,61; 16,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 8,56</t>
+          <t>-6,48; 26,74</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 12,58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-10,9; 12,44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 13,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
